--- a/fhir/StructureDefinition-ehealth-plandefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-plandefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="598">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1355,6 +1355,19 @@
   </si>
   <si>
     <t>Defines a reaction along with its trigger conditions.</t>
+  </si>
+  <si>
+    <t>PlanDefinition.action.extension:includeAsExtra</t>
+  </si>
+  <si>
+    <t>includeAsExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-include-as-extra}
+</t>
+  </si>
+  <si>
+    <t>Used to mark that the action/service request may be performed as extra, meaning the action/service request may also be performed outside the resolved timing slots.</t>
   </si>
   <si>
     <t>PlanDefinition.action.modifierExtension</t>
@@ -2152,7 +2165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN117"/>
+  <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9935,43 +9948,41 @@
         <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>128</v>
+        <v>433</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -10019,7 +10030,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -10028,7 +10039,7 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>134</v>
@@ -10043,47 +10054,51 @@
         <v>19</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>126</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10131,19 +10146,19 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>19</v>
@@ -10155,15 +10170,15 @@
         <v>19</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10189,10 +10204,10 @@
         <v>192</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10243,7 +10258,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -10258,7 +10273,7 @@
         <v>95</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>19</v>
@@ -10272,10 +10287,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10301,10 +10316,10 @@
         <v>192</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10355,7 +10370,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10370,7 +10385,7 @@
         <v>95</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>19</v>
@@ -10384,10 +10399,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10413,10 +10428,10 @@
         <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10467,7 +10482,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10496,10 +10511,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10522,13 +10537,13 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10555,13 +10570,13 @@
         <v>19</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>447</v>
+        <v>19</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>448</v>
+        <v>19</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>19</v>
@@ -10579,7 +10594,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
@@ -10594,7 +10609,7 @@
         <v>95</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>19</v>
@@ -10608,10 +10623,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10622,7 +10637,7 @@
         <v>75</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>19</v>
@@ -10634,13 +10649,13 @@
         <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10667,13 +10682,13 @@
         <v>19</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>19</v>
+        <v>451</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>19</v>
+        <v>452</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>19</v>
@@ -10691,13 +10706,13 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>19</v>
@@ -10720,10 +10735,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10749,14 +10764,12 @@
         <v>213</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N76" t="s" s="2">
         <v>455</v>
       </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -10805,7 +10818,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
@@ -10860,7 +10873,7 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>457</v>
@@ -10868,7 +10881,9 @@
       <c r="M77" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -10946,10 +10961,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10972,13 +10987,13 @@
         <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>85</v>
+        <v>338</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11029,7 +11044,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -11058,10 +11073,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11072,7 +11087,7 @@
         <v>75</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>19</v>
@@ -11084,76 +11099,70 @@
         <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q79" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AG79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>19</v>
@@ -11162,7 +11171,7 @@
         <v>95</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>19</v>
@@ -11176,10 +11185,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11190,7 +11199,7 @@
         <v>75</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>19</v>
@@ -11202,20 +11211,26 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="Q80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="R80" t="s" s="2">
         <v>19</v>
       </c>
@@ -11235,13 +11250,13 @@
         <v>19</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>19</v>
+        <v>241</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>19</v>
@@ -11259,13 +11274,13 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>19</v>
@@ -11274,7 +11289,7 @@
         <v>95</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>19</v>
@@ -11314,17 +11329,15 @@
         <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>348</v>
+        <v>472</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N81" t="s" s="2">
         <v>474</v>
       </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>19</v>
@@ -11416,7 +11429,7 @@
         <v>75</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>19</v>
@@ -11428,15 +11441,17 @@
         <v>19</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>353</v>
+        <v>476</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>19</v>
@@ -11485,19 +11500,19 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>19</v>
@@ -11509,26 +11524,26 @@
         <v>19</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>19</v>
@@ -11540,17 +11555,15 @@
         <v>19</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>19</v>
@@ -11599,19 +11612,19 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>19</v>
@@ -11628,14 +11641,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>362</v>
+        <v>170</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11648,26 +11661,24 @@
         <v>19</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N84" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="O84" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>19</v>
       </c>
@@ -11715,7 +11726,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11739,49 +11750,51 @@
         <v>19</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>126</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>479</v>
+        <v>363</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>19</v>
       </c>
@@ -11805,13 +11818,13 @@
         <v>19</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>482</v>
+        <v>19</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>19</v>
@@ -11829,19 +11842,19 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>478</v>
+        <v>365</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>19</v>
@@ -11853,15 +11866,15 @@
         <v>19</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11869,7 +11882,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>83</v>
@@ -11884,16 +11897,16 @@
         <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -11919,13 +11932,13 @@
         <v>19</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>19</v>
+        <v>486</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>19</v>
+        <v>487</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>19</v>
@@ -11943,10 +11956,10 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>83</v>
@@ -11972,10 +11985,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11986,7 +11999,7 @@
         <v>75</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>19</v>
@@ -11998,15 +12011,17 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -12055,13 +12070,13 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>19</v>
@@ -12110,13 +12125,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12196,10 +12211,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12222,17 +12237,15 @@
         <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>348</v>
+        <v>494</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N89" t="s" s="2">
         <v>499</v>
       </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>19</v>
@@ -12281,7 +12294,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>75</v>
@@ -12324,7 +12337,7 @@
         <v>75</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>19</v>
@@ -12336,15 +12349,17 @@
         <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>353</v>
+        <v>501</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>19</v>
@@ -12393,19 +12408,19 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>355</v>
+        <v>500</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>19</v>
@@ -12417,26 +12432,26 @@
         <v>19</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>19</v>
@@ -12448,17 +12463,15 @@
         <v>19</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -12507,19 +12520,19 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>19</v>
@@ -12536,14 +12549,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>362</v>
+        <v>170</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12556,26 +12569,24 @@
         <v>19</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="O92" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>19</v>
       </c>
@@ -12623,7 +12634,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>75</v>
@@ -12647,47 +12658,51 @@
         <v>19</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>126</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>504</v>
+        <v>363</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>19</v>
       </c>
@@ -12735,19 +12750,19 @@
         <v>19</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>503</v>
+        <v>365</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>19</v>
@@ -12759,15 +12774,15 @@
         <v>19</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12790,13 +12805,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12823,13 +12838,13 @@
         <v>19</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>509</v>
+        <v>19</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>510</v>
+        <v>19</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>19</v>
@@ -12847,7 +12862,7 @@
         <v>19</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
@@ -12876,10 +12891,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12887,7 +12902,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>83</v>
@@ -12902,13 +12917,13 @@
         <v>19</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12935,13 +12950,13 @@
         <v>19</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>19</v>
+        <v>513</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>19</v>
+        <v>514</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>19</v>
@@ -12959,10 +12974,10 @@
         <v>19</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>83</v>
@@ -13114,7 +13129,7 @@
         <v>75</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>19</v>
@@ -13126,13 +13141,13 @@
         <v>19</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>348</v>
+        <v>520</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13189,7 +13204,7 @@
         <v>75</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>19</v>
@@ -13212,10 +13227,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13226,7 +13241,7 @@
         <v>75</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>19</v>
@@ -13238,13 +13253,13 @@
         <v>19</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>353</v>
+        <v>524</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>354</v>
+        <v>525</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13295,19 +13310,19 @@
         <v>19</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>355</v>
+        <v>523</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>19</v>
@@ -13319,26 +13334,26 @@
         <v>19</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>19</v>
@@ -13350,17 +13365,15 @@
         <v>19</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>19</v>
@@ -13409,19 +13422,19 @@
         <v>19</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>19</v>
@@ -13438,14 +13451,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>362</v>
+        <v>170</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -13458,26 +13471,24 @@
         <v>19</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N100" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="O100" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>19</v>
       </c>
@@ -13525,7 +13536,7 @@
         <v>19</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>75</v>
@@ -13549,47 +13560,51 @@
         <v>19</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>126</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>526</v>
+        <v>363</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>19</v>
       </c>
@@ -13613,13 +13628,13 @@
         <v>19</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>528</v>
+        <v>19</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>529</v>
+        <v>19</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>19</v>
@@ -13637,19 +13652,19 @@
         <v>19</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>525</v>
+        <v>365</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>19</v>
@@ -13661,15 +13676,15 @@
         <v>19</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13677,7 +13692,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>83</v>
@@ -13692,13 +13707,13 @@
         <v>19</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13725,14 +13740,14 @@
         <v>19</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>369</v>
+        <v>223</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="Z102" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="AA102" t="s" s="2">
         <v>19</v>
       </c>
@@ -13749,10 +13764,10 @@
         <v>19</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>83</v>
@@ -13778,10 +13793,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13807,10 +13822,10 @@
         <v>213</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -13837,14 +13852,14 @@
         <v>19</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="Y103" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z103" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="Z103" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="AA103" t="s" s="2">
         <v>19</v>
       </c>
@@ -13861,7 +13876,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>75</v>
@@ -13890,10 +13905,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13916,13 +13931,13 @@
         <v>19</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13949,14 +13964,14 @@
         <v>19</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>544</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>19</v>
       </c>
@@ -13973,7 +13988,7 @@
         <v>19</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>75</v>
@@ -14002,10 +14017,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14031,10 +14046,10 @@
         <v>103</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14064,11 +14079,11 @@
         <v>223</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="Z105" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>549</v>
-      </c>
       <c r="AA105" t="s" s="2">
         <v>19</v>
       </c>
@@ -14085,7 +14100,7 @@
         <v>19</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>75</v>
@@ -14114,10 +14129,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14143,10 +14158,10 @@
         <v>103</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14176,11 +14191,11 @@
         <v>223</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>554</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>19</v>
       </c>
@@ -14197,7 +14212,7 @@
         <v>19</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>75</v>
@@ -14226,10 +14241,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14255,10 +14270,10 @@
         <v>103</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14288,11 +14303,11 @@
         <v>223</v>
       </c>
       <c r="Y107" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z107" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="Z107" t="s" s="2">
-        <v>559</v>
-      </c>
       <c r="AA107" t="s" s="2">
         <v>19</v>
       </c>
@@ -14309,7 +14324,7 @@
         <v>19</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>75</v>
@@ -14338,10 +14353,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14367,10 +14382,10 @@
         <v>103</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14400,11 +14415,11 @@
         <v>223</v>
       </c>
       <c r="Y108" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Z108" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="Z108" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AA108" t="s" s="2">
         <v>19</v>
       </c>
@@ -14421,7 +14436,7 @@
         <v>19</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>75</v>
@@ -14450,10 +14465,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14476,17 +14491,15 @@
         <v>19</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L109" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>569</v>
-      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>19</v>
@@ -14511,13 +14524,13 @@
         <v>19</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>19</v>
+        <v>567</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>19</v>
+        <v>568</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>19</v>
@@ -14535,7 +14548,7 @@
         <v>19</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>75</v>
@@ -14550,7 +14563,7 @@
         <v>95</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>570</v>
+        <v>19</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>19</v>
@@ -14564,10 +14577,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14590,16 +14603,16 @@
         <v>19</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14649,7 +14662,7 @@
         <v>19</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>75</v>
@@ -14664,7 +14677,7 @@
         <v>95</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>19</v>
+        <v>574</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>19</v>
@@ -14678,10 +14691,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14692,7 +14705,7 @@
         <v>75</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>19</v>
@@ -14704,7 +14717,7 @@
         <v>19</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>348</v>
+        <v>576</v>
       </c>
       <c r="L111" t="s" s="2">
         <v>577</v>
@@ -14763,13 +14776,13 @@
         <v>19</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>19</v>
@@ -14806,7 +14819,7 @@
         <v>75</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>19</v>
@@ -14818,15 +14831,17 @@
         <v>19</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>19</v>
@@ -14875,19 +14890,19 @@
         <v>19</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>355</v>
+        <v>580</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>19</v>
@@ -14899,26 +14914,26 @@
         <v>19</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>19</v>
@@ -14930,17 +14945,15 @@
         <v>19</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>19</v>
@@ -14989,19 +15002,19 @@
         <v>19</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>19</v>
@@ -15018,14 +15031,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>362</v>
+        <v>170</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -15038,26 +15051,24 @@
         <v>19</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="O114" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>19</v>
       </c>
@@ -15105,7 +15116,7 @@
         <v>19</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>75</v>
@@ -15129,49 +15140,51 @@
         <v>19</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>126</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>584</v>
+        <v>363</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>585</v>
+        <v>364</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O115" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P115" t="s" s="2">
         <v>19</v>
       </c>
@@ -15219,19 +15232,19 @@
         <v>19</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>583</v>
+        <v>365</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>19</v>
@@ -15243,7 +15256,7 @@
         <v>19</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
@@ -15274,7 +15287,7 @@
         <v>19</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>485</v>
+        <v>192</v>
       </c>
       <c r="L116" t="s" s="2">
         <v>588</v>
@@ -15283,7 +15296,7 @@
         <v>589</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>488</v>
+        <v>590</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15362,10 +15375,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15376,7 +15389,7 @@
         <v>75</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>19</v>
@@ -15388,15 +15401,17 @@
         <v>19</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>19</v>
@@ -15445,13 +15460,13 @@
         <v>19</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>19</v>
@@ -15460,7 +15475,7 @@
         <v>95</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>593</v>
+        <v>19</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>19</v>
@@ -15469,6 +15484,118 @@
         <v>19</v>
       </c>
       <c r="AN117" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>19</v>
       </c>
     </row>

--- a/fhir/StructureDefinition-ehealth-plandefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-plandefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-plandefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-plandefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-plandefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-plandefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2177,17 +2177,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.87109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.58984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.58984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.89453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="147.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2196,26 +2196,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.65625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.19140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="39.70703125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="90.48828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="34.04296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="77.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-plandefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-plandefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-plandefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-plandefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-plandefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-plandefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-plandefinition.xlsx
+++ b/fhir/StructureDefinition-ehealth-plandefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -702,7 +702,7 @@
     <t>The type of PlanDefinition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/plan-definition-type</t>
+    <t>http://hl7.org/fhir/ValueSet/plan-definition-type|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.status</t>
@@ -758,7 +758,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Group)</t>
+Reference(Group|4.0.1)</t>
   </si>
   <si>
     <t>Type of individual the plan definition is focused on</t>
@@ -773,7 +773,7 @@
     <t>The possible types of subjects for a plan definition (E.g. Patient, Practitioner, Organization, Location, etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/subject-type</t>
+    <t>http://hl7.org/fhir/ValueSet/subject-type|4.0.1</t>
   </si>
   <si>
     <t>Definition.subject</t>
@@ -1176,7 +1176,7 @@
     <t>Example codes for grouping goals for filtering or presentation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-category</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-category|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.description</t>
@@ -1194,7 +1194,7 @@
     <t>Describes goals that can be achieved.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.priority</t>
@@ -1209,7 +1209,7 @@
     <t>Indicates the level of importance associated with reaching or sustaining a goal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-priority</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-priority|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.start</t>
@@ -1224,7 +1224,7 @@
     <t>Identifies the types of events that might trigger the start of a goal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
+    <t>http://hl7.org/fhir/ValueSet/goal-start-event|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.addresses</t>
@@ -1239,7 +1239,7 @@
     <t>Identifies problems, conditions, issues, or concerns that goals may address.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.documentation</t>
@@ -1281,7 +1281,7 @@
     <t>Identifies types of parameters that can be tracked to determine goal achievement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.goal.target.detail[x]</t>
@@ -1688,7 +1688,7 @@
     <t>Defines roles played by participants for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-role|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.action.type</t>
@@ -1703,7 +1703,7 @@
     <t>The type of action to be performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-type</t>
+    <t>http://hl7.org/fhir/ValueSet/action-type|4.0.1</t>
   </si>
   <si>
     <t>PlanDefinition.action.groupingBehavior</t>
@@ -1803,7 +1803,7 @@
     <t>PlanDefinition.action.transform</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureMap)
+    <t xml:space="preserve">canonical(StructureMap|4.0.1)
 </t>
   </si>
   <si>
